--- a/biology/Botanique/Karl_Friedrich_Schimper/Karl_Friedrich_Schimper.xlsx
+++ b/biology/Botanique/Karl_Friedrich_Schimper/Karl_Friedrich_Schimper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Friedrich Schimper, né le 15 février 1803 à Mannheim et mort le 21 décembre 1867 à Schwetzingen, est un naturaliste badois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence à étudier la théologie mais découvre la botanique et se tourne définitivement vers les sciences. Il voyage dans le sud de la France ainsi que dans les Pyrénées et y herborise. Schimper suit les cours à l’université d’Heidelberg et rencontre Alexander Karl Heinrich Braun (1805-1877) et Louis Agassiz (1807-1873).
 En 1828, il enseigne la botanique et la géologie à l'Académie de la Bavière. Il s'intéresse particulièrement à la morphologie botanique et mathématise le développement des feuilles des plantes : la phyllotaxie.
